--- a/Secretarias/SEGOB/DGG/REUNIONES_OK.xlsx
+++ b/Secretarias/SEGOB/DGG/REUNIONES_OK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Carmona\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\DGG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\DGG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B89DF61-D066-454E-A946-E7998497DBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253AD180-AECD-4C25-8F7D-8C6B2A0417F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCP_2021_2023" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="940">
   <si>
     <t>30003</t>
   </si>
@@ -2774,69 +2768,21 @@
 13/03/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53617296663_efcddf09b7_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617533070_53f87544b5_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616213762_775e4b9f4e_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617295308_c41db10610_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>09/02/2024
 05/03/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53616212347_17a37f2c73_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617296658_9cb743b001_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>12/02/2024
 23/02/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53617531640_faca7da8d7_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617531680_c8cdda0596_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617533000_490c87a51c_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616996551_a246370024_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617084846_c6ed81ac8a_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>18/01/2024
 22/03/2024</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617332324_e0b423b20e_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617207143_effb51fc62_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>21/02/2024
 22/02/2024
 05/03/2024</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617207133_6bc6287ce3_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617085021_a123b35126_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617086566_81eceffad0_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>06/02/2024
@@ -2845,38 +2791,14 @@
 29/02/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53616124592_0e0227204a_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617207113_b8c7aec946_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>25/01/2024
 28/02/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53617207103_ce7868cfb0_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617531575_3c58847ce5_c.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>30080</t>
   </si>
   <si>
     <t>Ixhuatlán del Café</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617421889_d408f354d0_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617444015_3af6a75a99_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617443995_cb2f5111cb_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617295203_4defff7ac0_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>12/01/2024
@@ -2889,48 +2811,15 @@
 27/02/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53616124537_19252d25c7_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616996481_541ee5b8d1_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617421839_48c0dc27f6_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616213677_2b334fb9de_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>24/01/2024
 13/03/2024
 20/03/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53617444075_083bf51b90_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617421834_ab1627d11e_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617532945_f1ca96a753_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>30121</t>
   </si>
   <si>
     <t>Ozuluama de Mascareñas</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617421819_741c76cbf8_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617084876_e4303c476f_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617332254_d4a6752cab_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617332259_72d8232395_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>29/01/2024
@@ -2940,82 +2829,22 @@
 12/03/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53617207063_c01c876923_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616996511_f10060a778_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617086546_66c46cd1ad_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617084886_bdb6a4430b_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53627978889_d9e72da0b4_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>30138</t>
   </si>
   <si>
     <t>Río Blanco</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53627849718_b505f0291a_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617421824_3e6e4b3d30_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616213617_fbd56c3948_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>01/03/2024
 04/03/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53616213622_440943de56_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616996546_a6ddf3c1fa_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617332229_7e510785b7_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617207018_040f059412_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617420289_f5cbffaaa7_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617296523_5fedc146e2_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616124572_ef7bafaaf3_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>01/02/2024
 07/02/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53617420199_3e884c9653_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617295153_16d58fcd34_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53616996441_535d42b98e_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53617443855_32304be381_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>05/06/2024
 20/06/2024</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835653564_8261f38995_k.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>18/06/2024
@@ -3024,16 +2853,10 @@
 26/06/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53835308226_6dd225f694_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>30019</t>
   </si>
   <si>
     <t>Astacinga</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798794013_ef1f8f42b5_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>27/05/2024
@@ -3042,27 +2865,9 @@
 27/06/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53798794028_7a995cc9a1_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835557413_ebc01451c8_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798566876_423f8287a8_b.jpg[/img][/url][url=https:</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53797621037_9c6d04e6a7_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>16/04/2024
 14/05/2024
 10/06/2024</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798983985_b48642623c_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53797621032_8676cae44f_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>13/05/2024
@@ -3072,23 +2877,8 @@
 25/06/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53798566831_cec4fd5b98_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>08/04/2024
 22/05/2024</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798566821_c7241c90fd_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835748245_36d538dd42_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798566796_bdd232c48b_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798568851_31de9634b8_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>23/04/2024
@@ -3096,23 +2886,8 @@
 13/06/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53798983925_6d31d27bac_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798983960_ae966951cc_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835308031_12ac855acf_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t xml:space="preserve">30/04/2024
 </t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53797621022_1570b3bbef_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798986100_b3854b7ea2_h.jpg[/img][/url][url=https</t>
   </si>
   <si>
     <t>18/04/2024
@@ -3120,29 +2895,479 @@
 25/06/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53798885629_fb981dfb71_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835747940_3150732ec8_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835557348_ff681cb42d_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53835308056_69aff6ae6b_b.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53798887944_0ba2f4ce81_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
     <t>03/05/2024
 14/05/2024</t>
   </si>
   <si>
-    <t>https://live.staticflickr.com/65535/53798793938_ec8a7429a3_h.jpg[/img][/url][url=https</t>
-  </si>
-  <si>
-    <t>https://live.staticflickr.com/65535/53797623172_e5583a2632_h.jpg[/img][/url][url=https</t>
+    <t>https://live.staticflickr.com/65535/53617296663_efcddf09b7_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616213762_775e4b9f4e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617295308_c41db10610_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616212347_17a37f2c73_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617531640_faca7da8d7_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617533000_490c87a51c_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616996551_a246370024_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617084846_c6ed81ac8a_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617332324_e0b423b20e_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617207133_6bc6287ce3_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617086566_81eceffad0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616124592_0e0227204a_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617207103_ce7868cfb0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617421889_d408f354d0_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617444015_3af6a75a99_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617295203_4defff7ac0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616124537_19252d25c7_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617421839_48c0dc27f6_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616213677_2b334fb9de_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617444075_083bf51b90_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617532945_f1ca96a753_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617421819_741c76cbf8_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617084876_e4303c476f_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617332254_d4a6752cab_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617332259_72d8232395_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617207063_c01c876923_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617086546_66c46cd1ad_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617084886_bdb6a4430b_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53627978889_d9e72da0b4_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53627849718_b505f0291a_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617421824_3e6e4b3d30_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616213617_fbd56c3948_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616213622_440943de56_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616996546_a6ddf3c1fa_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617332229_7e510785b7_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617207018_040f059412_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617420289_f5cbffaaa7_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617296523_5fedc146e2_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616124572_ef7bafaaf3_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617420199_3e884c9653_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616996441_535d42b98e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617443855_32304be381_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835653564_8261f38995_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835308226_6dd225f694_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798794013_ef1f8f42b5_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798794028_7a995cc9a1_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835557413_ebc01451c8_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798566876_423f8287a8_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53797621037_9c6d04e6a7_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798983985_b48642623c_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53797621032_8676cae44f_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798566831_cec4fd5b98_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798566821_c7241c90fd_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835748245_36d538dd42_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798566796_bdd232c48b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798568851_31de9634b8_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798983925_6d31d27bac_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798983960_ae966951cc_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835308031_12ac855acf_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53797621022_1570b3bbef_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798986100_b3854b7ea2_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798885629_fb981dfb71_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835747940_3150732ec8_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835557348_ff681cb42d_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53835308056_69aff6ae6b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798887944_0ba2f4ce81_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53798793938_ec8a7429a3_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53797623172_e5583a2632_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617533070_53f87544b5_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617296658_9cb743b001_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617531680_c8cdda0596_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617207143_effb51fc62_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617085021_a123b35126_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617207113_b8c7aec946_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617531575_3c58847ce5_c.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617443995_cb2f5111cb_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616996481_541ee5b8d1_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617421834_ab1627d11e_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53616996511_f10060a778_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53617295153_16d58fcd34_h.jpg</t>
+  </si>
+  <si>
+    <t>05/07/2024
+08/07/2024
+06/08/2024
+06/08/2024
+13/08/2024
+09/09/2024
+11/09/2024</t>
+  </si>
+  <si>
+    <t>16/07/2024
+13/08/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024
+08/08/2024
+28/08/2024</t>
+  </si>
+  <si>
+    <t>21/08/2024
+03/09/2024</t>
+  </si>
+  <si>
+    <t>08/07/2024
+07/08/2024</t>
+  </si>
+  <si>
+    <t>29/07/2024
+25/09/2024</t>
+  </si>
+  <si>
+    <t>30075</t>
+  </si>
+  <si>
+    <t>Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t>23/08/2024
+24/09/2024</t>
+  </si>
+  <si>
+    <t>30081</t>
+  </si>
+  <si>
+    <t>Ixhuatlancillo</t>
+  </si>
+  <si>
+    <t>29/08/2024
+02/09/2024
+09/09/2024
+11/09/2024
+19/09/2024</t>
+  </si>
+  <si>
+    <t>03/07/2024
+21/08/2024</t>
+  </si>
+  <si>
+    <t>09/07/2024
+10/09/2024</t>
+  </si>
+  <si>
+    <t>27/08/2024
+27/08/2024
+28/08/2024
+23/09/2024</t>
+  </si>
+  <si>
+    <t>17/07/2024
+20/08/2024</t>
+  </si>
+  <si>
+    <t>30180</t>
+  </si>
+  <si>
+    <t>Tlachichilco</t>
+  </si>
+  <si>
+    <t>11/09/2024
+17/09/2024</t>
+  </si>
+  <si>
+    <t>12/09/2024
+20/09/2024</t>
+  </si>
+  <si>
+    <t>21/08/2024
+10/09/2024
+19/09/2024</t>
+  </si>
+  <si>
+    <t>30196</t>
+  </si>
+  <si>
+    <t>Yanga</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54005858072_6d8763ac52_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904804139_4f1bb46b95_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040771959_a9704f0cc1_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53903555212_b7059498ca_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904451391_ee0b531cb5_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040445216_57339e955f_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54005857987_6b96e35080_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770696_f0020f1d17_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040445221_dae9a6adbe_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53903555207_ba8cfd80fd_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53903555197_efdfc328c0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040771899_6940162830_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904887995_c2241c788a_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006997728_7b5e74bae3_z.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904887990_72240faf38_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904803894_cd091d14d1_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54007097834_ca7478e387_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904703878_86ebac2a21_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904887890_cbcab64cf2_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904803934_3e82ca0fbc_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904451296_05015a0d3d_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904887870_8db2738f83_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770591_c2af6c6d57_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040771734_e1f1f615a3_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904451481_c3349b61ab_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53903555087_bc6870b025_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040444996_b910bf2cbc_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770576_02efc583d5_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54007189070_d5ac13d2bd_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904803744_ed7f216aef_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54005858042_3fdd167aec_z.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770766_45ec3a6d68_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006997718_3069943f45_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54007189205_2279e0c200_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770706_bb659919df_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040445181_ce0a3dc61e_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54039581052_436ba576d2_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53904887800_aece3dd98d_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54007189020_cf30c06256_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770571_b804aaf6bb_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54006770596_15944957a9_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54007098119_2b68238c90_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040771694_298bbcd8b5_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54040444986_16a00d153e_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54005857832_fe40df4f7e_h.jpg</t>
   </si>
 </sst>
 </file>
@@ -3291,7 +3516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3402,6 +3627,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3723,33 +3951,33 @@
   <dimension ref="A1:T331"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" customWidth="1"/>
+    <col min="19" max="19" width="7.109375" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
@@ -3787,7 +4015,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +4052,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3861,7 +4089,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>116</v>
       </c>
@@ -3896,7 +4124,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +4161,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +4197,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +4234,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +4271,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -4080,7 +4308,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -4117,7 +4345,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>20</v>
       </c>
@@ -4154,7 +4382,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -4191,7 +4419,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>24</v>
       </c>
@@ -4228,7 +4456,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>114</v>
       </c>
@@ -4265,7 +4493,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -4302,7 +4530,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -4339,7 +4567,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -4376,7 +4604,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>26</v>
       </c>
@@ -4413,7 +4641,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -4450,7 +4678,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -4487,7 +4715,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>32</v>
       </c>
@@ -4524,7 +4752,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -4561,7 +4789,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
@@ -4598,7 +4826,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
@@ -4635,7 +4863,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>40</v>
       </c>
@@ -4672,7 +4900,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>48</v>
       </c>
@@ -4709,7 +4937,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
@@ -4746,7 +4974,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>52</v>
       </c>
@@ -4783,7 +5011,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
@@ -4820,7 +5048,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -4857,7 +5085,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>120</v>
       </c>
@@ -4894,7 +5122,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
@@ -4931,7 +5159,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
@@ -4968,7 +5196,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>12</v>
       </c>
@@ -5005,7 +5233,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>100</v>
       </c>
@@ -5042,7 +5270,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>66</v>
       </c>
@@ -5079,7 +5307,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>68</v>
       </c>
@@ -5116,7 +5344,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>70</v>
       </c>
@@ -5153,7 +5381,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>72</v>
       </c>
@@ -5190,7 +5418,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>74</v>
       </c>
@@ -5227,7 +5455,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>76</v>
       </c>
@@ -5264,7 +5492,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>78</v>
       </c>
@@ -5301,7 +5529,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>138</v>
       </c>
@@ -5338,7 +5566,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>80</v>
       </c>
@@ -5375,7 +5603,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>82</v>
       </c>
@@ -5412,7 +5640,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>84</v>
       </c>
@@ -5449,7 +5677,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>86</v>
       </c>
@@ -5486,7 +5714,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>88</v>
       </c>
@@ -5523,7 +5751,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>90</v>
       </c>
@@ -5560,7 +5788,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>92</v>
       </c>
@@ -5597,7 +5825,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>94</v>
       </c>
@@ -5634,7 +5862,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>96</v>
       </c>
@@ -5671,7 +5899,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>98</v>
       </c>
@@ -5708,7 +5936,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>102</v>
       </c>
@@ -5745,7 +5973,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>104</v>
       </c>
@@ -5782,7 +6010,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>106</v>
       </c>
@@ -5819,7 +6047,7 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>108</v>
       </c>
@@ -5856,7 +6084,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>110</v>
       </c>
@@ -5893,7 +6121,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>112</v>
       </c>
@@ -5930,7 +6158,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>118</v>
       </c>
@@ -5967,7 +6195,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>122</v>
       </c>
@@ -6004,7 +6232,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>124</v>
       </c>
@@ -6041,7 +6269,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>18</v>
       </c>
@@ -6078,7 +6306,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>126</v>
       </c>
@@ -6115,7 +6343,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>140</v>
       </c>
@@ -6152,7 +6380,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>128</v>
       </c>
@@ -6189,7 +6417,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>130</v>
       </c>
@@ -6226,7 +6454,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>132</v>
       </c>
@@ -6263,7 +6491,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>54</v>
       </c>
@@ -6300,7 +6528,7 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>58</v>
       </c>
@@ -6337,7 +6565,7 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>134</v>
       </c>
@@ -6374,7 +6602,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>136</v>
       </c>
@@ -6411,7 +6639,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>260</v>
       </c>
@@ -6437,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>262</v>
       </c>
@@ -6463,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>262</v>
       </c>
@@ -6489,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>262</v>
       </c>
@@ -6515,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>0</v>
       </c>
@@ -6541,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>2</v>
       </c>
@@ -6567,7 +6795,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>2</v>
       </c>
@@ -6593,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
@@ -6619,7 +6847,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>312</v>
       </c>
@@ -6645,7 +6873,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>312</v>
       </c>
@@ -6671,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>116</v>
       </c>
@@ -6697,7 +6925,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>116</v>
       </c>
@@ -6723,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>4</v>
       </c>
@@ -6749,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>4</v>
       </c>
@@ -6775,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>6</v>
       </c>
@@ -6801,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>6</v>
       </c>
@@ -6827,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>6</v>
       </c>
@@ -6853,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>8</v>
       </c>
@@ -6879,7 +7107,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>8</v>
       </c>
@@ -6905,7 +7133,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
@@ -6931,7 +7159,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>316</v>
       </c>
@@ -6957,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>10</v>
       </c>
@@ -6983,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>10</v>
       </c>
@@ -7009,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>10</v>
       </c>
@@ -7035,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>16</v>
       </c>
@@ -7061,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>268</v>
       </c>
@@ -7087,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>268</v>
       </c>
@@ -7113,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>22</v>
       </c>
@@ -7139,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>22</v>
       </c>
@@ -7165,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>22</v>
       </c>
@@ -7191,7 +7419,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>114</v>
       </c>
@@ -7217,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>114</v>
       </c>
@@ -7243,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>114</v>
       </c>
@@ -7269,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>320</v>
       </c>
@@ -7295,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>42</v>
       </c>
@@ -7321,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>366</v>
       </c>
@@ -7347,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>28</v>
       </c>
@@ -7373,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>28</v>
       </c>
@@ -7399,7 +7627,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>28</v>
       </c>
@@ -7425,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>323</v>
       </c>
@@ -7451,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>30</v>
       </c>
@@ -7477,7 +7705,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>32</v>
       </c>
@@ -7503,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>32</v>
       </c>
@@ -7529,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>34</v>
       </c>
@@ -7555,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>34</v>
       </c>
@@ -7581,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>364</v>
       </c>
@@ -7607,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>40</v>
       </c>
@@ -7633,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>326</v>
       </c>
@@ -7659,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>48</v>
       </c>
@@ -7685,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>48</v>
       </c>
@@ -7711,7 +7939,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>274</v>
       </c>
@@ -7737,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>369</v>
       </c>
@@ -7763,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>372</v>
       </c>
@@ -7789,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>50</v>
       </c>
@@ -7815,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
         <v>50</v>
       </c>
@@ -7841,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>50</v>
       </c>
@@ -7867,7 +8095,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>277</v>
       </c>
@@ -7893,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>277</v>
       </c>
@@ -7919,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>329</v>
       </c>
@@ -7945,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>52</v>
       </c>
@@ -7971,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>52</v>
       </c>
@@ -7997,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>60</v>
       </c>
@@ -8023,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>60</v>
       </c>
@@ -8049,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>62</v>
       </c>
@@ -8075,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>64</v>
       </c>
@@ -8101,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>64</v>
       </c>
@@ -8127,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>12</v>
       </c>
@@ -8153,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>100</v>
       </c>
@@ -8179,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>66</v>
       </c>
@@ -8205,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>66</v>
       </c>
@@ -8231,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>378</v>
       </c>
@@ -8257,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>68</v>
       </c>
@@ -8283,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>68</v>
       </c>
@@ -8309,7 +8537,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>72</v>
       </c>
@@ -8335,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
         <v>72</v>
       </c>
@@ -8361,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>76</v>
       </c>
@@ -8387,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>76</v>
       </c>
@@ -8413,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>78</v>
       </c>
@@ -8439,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
         <v>78</v>
       </c>
@@ -8465,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>78</v>
       </c>
@@ -8491,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>80</v>
       </c>
@@ -8517,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>80</v>
       </c>
@@ -8543,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>285</v>
       </c>
@@ -8569,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>84</v>
       </c>
@@ -8595,7 +8823,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>84</v>
       </c>
@@ -8621,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>88</v>
       </c>
@@ -8647,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>88</v>
       </c>
@@ -8673,7 +8901,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>90</v>
       </c>
@@ -8699,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
         <v>92</v>
       </c>
@@ -8725,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>92</v>
       </c>
@@ -8751,7 +8979,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>288</v>
       </c>
@@ -8777,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>94</v>
       </c>
@@ -8803,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>94</v>
       </c>
@@ -8829,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>94</v>
       </c>
@@ -8855,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>98</v>
       </c>
@@ -8881,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>290</v>
       </c>
@@ -8907,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>290</v>
       </c>
@@ -8933,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>338</v>
       </c>
@@ -8959,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>340</v>
       </c>
@@ -8985,7 +9213,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>340</v>
       </c>
@@ -9011,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>292</v>
       </c>
@@ -9037,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>295</v>
       </c>
@@ -9063,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>343</v>
       </c>
@@ -9089,7 +9317,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>343</v>
       </c>
@@ -9115,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>122</v>
       </c>
@@ -9141,7 +9369,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>122</v>
       </c>
@@ -9167,7 +9395,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>346</v>
       </c>
@@ -9193,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>299</v>
       </c>
@@ -9219,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>301</v>
       </c>
@@ -9245,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>349</v>
       </c>
@@ -9271,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>351</v>
       </c>
@@ -9297,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>351</v>
       </c>
@@ -9323,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>18</v>
       </c>
@@ -9349,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>18</v>
       </c>
@@ -9375,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>126</v>
       </c>
@@ -9401,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>303</v>
       </c>
@@ -9427,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>140</v>
       </c>
@@ -9453,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>140</v>
       </c>
@@ -9479,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>140</v>
       </c>
@@ -9505,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>130</v>
       </c>
@@ -9531,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>305</v>
       </c>
@@ -9557,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>305</v>
       </c>
@@ -9583,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>132</v>
       </c>
@@ -9609,7 +9837,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>132</v>
       </c>
@@ -9635,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>132</v>
       </c>
@@ -9661,7 +9889,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>54</v>
       </c>
@@ -9687,7 +9915,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>54</v>
       </c>
@@ -9713,7 +9941,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>54</v>
       </c>
@@ -9739,7 +9967,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>58</v>
       </c>
@@ -9765,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>58</v>
       </c>
@@ -9791,7 +10019,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>58</v>
       </c>
@@ -9817,7 +10045,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>355</v>
       </c>
@@ -9843,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>136</v>
       </c>
@@ -9869,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>136</v>
       </c>
@@ -9895,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>136</v>
       </c>
@@ -9921,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
         <v>262</v>
       </c>
@@ -9947,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
         <v>2</v>
       </c>
@@ -9973,7 +10201,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
         <v>4</v>
       </c>
@@ -9999,7 +10227,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
         <v>8</v>
       </c>
@@ -10025,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
         <v>316</v>
       </c>
@@ -10051,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
         <v>28</v>
       </c>
@@ -10077,7 +10305,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
         <v>539</v>
       </c>
@@ -10103,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
         <v>542</v>
       </c>
@@ -10129,7 +10357,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
         <v>48</v>
       </c>
@@ -10155,7 +10383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="s">
         <v>50</v>
       </c>
@@ -10181,7 +10409,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="17" t="s">
         <v>54</v>
       </c>
@@ -10207,7 +10435,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17" t="s">
         <v>58</v>
       </c>
@@ -10233,7 +10461,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="17" t="s">
         <v>60</v>
       </c>
@@ -10259,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="17" t="s">
         <v>64</v>
       </c>
@@ -10285,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="17" t="s">
         <v>68</v>
       </c>
@@ -10311,7 +10539,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
         <v>76</v>
       </c>
@@ -10337,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
         <v>78</v>
       </c>
@@ -10363,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="17" t="s">
         <v>80</v>
       </c>
@@ -10389,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="17" t="s">
         <v>96</v>
       </c>
@@ -10415,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17" t="s">
         <v>98</v>
       </c>
@@ -10441,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17" t="s">
         <v>100</v>
       </c>
@@ -10467,7 +10695,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="17" t="s">
         <v>571</v>
       </c>
@@ -10493,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="17" t="s">
         <v>574</v>
       </c>
@@ -10519,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="17" t="s">
         <v>110</v>
       </c>
@@ -10545,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="17" t="s">
         <v>116</v>
       </c>
@@ -10571,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17" t="s">
         <v>343</v>
       </c>
@@ -10597,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="s">
         <v>122</v>
       </c>
@@ -10623,7 +10851,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17" t="s">
         <v>126</v>
       </c>
@@ -10649,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17" t="s">
         <v>583</v>
       </c>
@@ -10675,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17" t="s">
         <v>130</v>
       </c>
@@ -10701,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="17" t="s">
         <v>132</v>
       </c>
@@ -10727,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="17" t="s">
         <v>355</v>
       </c>
@@ -10753,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="17" t="s">
         <v>136</v>
       </c>
@@ -10779,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="17" t="s">
         <v>140</v>
       </c>
@@ -10805,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="17" t="s">
         <v>260</v>
       </c>
@@ -10831,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="17" t="s">
         <v>2</v>
       </c>
@@ -10857,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="17" t="s">
         <v>8</v>
       </c>
@@ -10883,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17" t="s">
         <v>10</v>
       </c>
@@ -10909,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17" t="s">
         <v>16</v>
       </c>
@@ -10935,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17" t="s">
         <v>18</v>
       </c>
@@ -10961,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="17" t="s">
         <v>24</v>
       </c>
@@ -10985,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="17" t="s">
         <v>28</v>
       </c>
@@ -11011,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="17" t="s">
         <v>323</v>
       </c>
@@ -11035,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="s">
         <v>34</v>
       </c>
@@ -11059,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="17" t="s">
         <v>597</v>
       </c>
@@ -11083,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="17" t="s">
         <v>48</v>
       </c>
@@ -11109,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="17" t="s">
         <v>600</v>
       </c>
@@ -11135,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="17" t="s">
         <v>54</v>
       </c>
@@ -11159,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="17" t="s">
         <v>58</v>
       </c>
@@ -11185,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="s">
         <v>76</v>
       </c>
@@ -11211,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="17" t="s">
         <v>78</v>
       </c>
@@ -11237,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="17" t="s">
         <v>80</v>
       </c>
@@ -11263,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="s">
         <v>88</v>
       </c>
@@ -11287,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="s">
         <v>90</v>
       </c>
@@ -11311,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="s">
         <v>100</v>
       </c>
@@ -11335,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17" t="s">
         <v>102</v>
       </c>
@@ -11361,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17" t="s">
         <v>340</v>
       </c>
@@ -11385,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="17" t="s">
         <v>605</v>
       </c>
@@ -11411,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="17" t="s">
         <v>120</v>
       </c>
@@ -11437,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="17" t="s">
         <v>122</v>
       </c>
@@ -11463,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17" t="s">
         <v>299</v>
       </c>
@@ -11487,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17" t="s">
         <v>124</v>
       </c>
@@ -11511,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17" t="s">
         <v>303</v>
       </c>
@@ -11537,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17" t="s">
         <v>136</v>
       </c>
@@ -11563,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17" t="s">
         <v>140</v>
       </c>
@@ -11589,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="17" t="s">
         <v>2</v>
       </c>
@@ -11615,7 +11843,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="s">
         <v>4</v>
       </c>
@@ -11641,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="17" t="s">
         <v>10</v>
       </c>
@@ -11667,7 +11895,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="s">
         <v>28</v>
       </c>
@@ -11693,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17" t="s">
         <v>611</v>
       </c>
@@ -11719,7 +11947,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17" t="s">
         <v>48</v>
       </c>
@@ -11745,7 +11973,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17" t="s">
         <v>54</v>
       </c>
@@ -11771,7 +11999,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17" t="s">
         <v>58</v>
       </c>
@@ -11797,7 +12025,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="17" t="s">
         <v>60</v>
       </c>
@@ -11823,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="17" t="s">
         <v>617</v>
       </c>
@@ -11849,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="17" t="s">
         <v>66</v>
       </c>
@@ -11875,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17" t="s">
         <v>70</v>
       </c>
@@ -11901,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17" t="s">
         <v>76</v>
       </c>
@@ -11927,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17" t="s">
         <v>78</v>
       </c>
@@ -11953,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17" t="s">
         <v>621</v>
       </c>
@@ -11979,7 +12207,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="s">
         <v>90</v>
       </c>
@@ -12005,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="17" t="s">
         <v>94</v>
       </c>
@@ -12031,7 +12259,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="s">
         <v>106</v>
       </c>
@@ -12057,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="17" t="s">
         <v>605</v>
       </c>
@@ -12083,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="s">
         <v>627</v>
       </c>
@@ -12109,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="17" t="s">
         <v>116</v>
       </c>
@@ -12135,7 +12363,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="s">
         <v>630</v>
       </c>
@@ -12161,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="17" t="s">
         <v>343</v>
       </c>
@@ -12187,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
         <v>122</v>
       </c>
@@ -12213,7 +12441,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="17" t="s">
         <v>299</v>
       </c>
@@ -12239,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="s">
         <v>132</v>
       </c>
@@ -12265,7 +12493,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17" t="s">
         <v>136</v>
       </c>
@@ -12291,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17" t="s">
         <v>635</v>
       </c>
@@ -12317,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17" t="s">
         <v>140</v>
       </c>
@@ -12343,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17" t="s">
         <v>637</v>
       </c>
@@ -12369,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17" t="s">
         <v>262</v>
       </c>
@@ -12395,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17" t="s">
         <v>2</v>
       </c>
@@ -12421,7 +12649,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="17" t="s">
         <v>640</v>
       </c>
@@ -12447,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17" t="s">
         <v>16</v>
       </c>
@@ -12473,7 +12701,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17" t="s">
         <v>20</v>
       </c>
@@ -12499,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="s">
         <v>268</v>
       </c>
@@ -12525,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17" t="s">
         <v>323</v>
       </c>
@@ -12551,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17" t="s">
         <v>32</v>
       </c>
@@ -12577,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17" t="s">
         <v>36</v>
       </c>
@@ -12603,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="17" t="s">
         <v>643</v>
       </c>
@@ -12629,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="s">
         <v>48</v>
       </c>
@@ -12655,7 +12883,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="17" t="s">
         <v>600</v>
       </c>
@@ -12681,7 +12909,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="17" t="s">
         <v>50</v>
       </c>
@@ -12707,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="17" t="s">
         <v>54</v>
       </c>
@@ -12733,7 +12961,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="s">
         <v>648</v>
       </c>
@@ -12759,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="17" t="s">
         <v>58</v>
       </c>
@@ -12785,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="17" t="s">
         <v>64</v>
       </c>
@@ -12811,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="s">
         <v>72</v>
       </c>
@@ -12837,7 +13065,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17" t="s">
         <v>78</v>
       </c>
@@ -12863,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17" t="s">
         <v>86</v>
       </c>
@@ -12889,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17" t="s">
         <v>90</v>
       </c>
@@ -12915,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="s">
         <v>651</v>
       </c>
@@ -12941,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="s">
         <v>290</v>
       </c>
@@ -12967,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="17" t="s">
         <v>343</v>
       </c>
@@ -12993,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17" t="s">
         <v>118</v>
       </c>
@@ -13019,7 +13247,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="17" t="s">
         <v>346</v>
       </c>
@@ -13045,7 +13273,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="17" t="s">
         <v>130</v>
       </c>
@@ -13071,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="17" t="s">
         <v>132</v>
       </c>
@@ -13097,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="17" t="s">
         <v>635</v>
       </c>
@@ -13124,7 +13352,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H73">
     <sortCondition ref="B1:B73"/>
   </sortState>
   <hyperlinks>
@@ -13202,15 +13430,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A890410-1D01-4384-94B0-790A536BB539}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>253</v>
       </c>
@@ -13236,7 +13464,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>262</v>
       </c>
@@ -13256,13 +13484,13 @@
         <v>762</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
@@ -13282,13 +13510,13 @@
         <v>45371</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="H3" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>312</v>
       </c>
@@ -13308,13 +13536,13 @@
         <v>45310</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="H4" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
@@ -13331,16 +13559,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
@@ -13357,16 +13585,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
@@ -13386,13 +13614,13 @@
         <v>45365</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="H7" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
@@ -13412,13 +13640,13 @@
         <v>45322</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="H8" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
@@ -13438,13 +13666,13 @@
         <v>45343</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="H9" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
@@ -13461,16 +13689,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>539</v>
       </c>
@@ -13487,16 +13715,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>643</v>
       </c>
@@ -13516,13 +13744,13 @@
         <v>45359</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="H12" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>48</v>
       </c>
@@ -13539,16 +13767,16 @@
         <v>4</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>369</v>
       </c>
@@ -13565,21 +13793,21 @@
         <v>2</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>143</v>
@@ -13594,13 +13822,13 @@
         <v>45360</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="H15" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>54</v>
       </c>
@@ -13620,13 +13848,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>648</v>
       </c>
@@ -13646,13 +13874,13 @@
         <v>45349</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="H17" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>58</v>
       </c>
@@ -13669,16 +13897,16 @@
         <v>8</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>66</v>
       </c>
@@ -13698,13 +13926,13 @@
         <v>45364</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="H19" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>72</v>
       </c>
@@ -13724,13 +13952,13 @@
         <v>45354</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="H20" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>78</v>
       </c>
@@ -13747,16 +13975,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>621</v>
       </c>
@@ -13776,18 +14004,18 @@
         <v>45378</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="H22" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>143</v>
@@ -13802,13 +14030,13 @@
         <v>45355</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="H23" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>90</v>
       </c>
@@ -13828,13 +14056,13 @@
         <v>45332</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="H24" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>288</v>
       </c>
@@ -13854,13 +14082,13 @@
         <v>45295</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="H25" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>92</v>
       </c>
@@ -13880,13 +14108,13 @@
         <v>45320</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="H26" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>94</v>
       </c>
@@ -13903,16 +14131,16 @@
         <v>5</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>98</v>
       </c>
@@ -13932,13 +14160,13 @@
         <v>45377</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="H28" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>100</v>
       </c>
@@ -13958,13 +14186,13 @@
         <v>45323</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="H29" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>290</v>
       </c>
@@ -13984,18 +14212,18 @@
         <v>45335</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="H30" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>143</v>
@@ -14010,13 +14238,13 @@
         <v>45321</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="H31" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>574</v>
       </c>
@@ -14036,13 +14264,13 @@
         <v>45371</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="H32" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>605</v>
       </c>
@@ -14062,13 +14290,13 @@
         <v>45364</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="H33" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>627</v>
       </c>
@@ -14085,16 +14313,16 @@
         <v>2</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>821</v>
+        <v>778</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H34" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>116</v>
       </c>
@@ -14114,13 +14342,13 @@
         <v>45363</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H35" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>343</v>
       </c>
@@ -14140,13 +14368,13 @@
         <v>45362</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H36" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>118</v>
       </c>
@@ -14166,13 +14394,13 @@
         <v>45302</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H37" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>120</v>
       </c>
@@ -14192,13 +14420,13 @@
         <v>45336</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H38" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>124</v>
       </c>
@@ -14218,13 +14446,13 @@
         <v>45366</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H39" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>351</v>
       </c>
@@ -14244,13 +14472,13 @@
         <v>45324</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="H40" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>130</v>
       </c>
@@ -14267,16 +14495,16 @@
         <v>2</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>829</v>
+        <v>779</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
         <v>132</v>
       </c>
@@ -14302,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>136</v>
       </c>
@@ -14328,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>262</v>
       </c>
@@ -14345,16 +14573,16 @@
         <v>2</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>835</v>
-      </c>
       <c r="H44" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>2</v>
       </c>
@@ -14371,21 +14599,21 @@
         <v>4</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>836</v>
+        <v>781</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H45" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>838</v>
+        <v>782</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>839</v>
+        <v>783</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>143</v>
@@ -14400,13 +14628,13 @@
         <v>45428</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H46" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>16</v>
       </c>
@@ -14423,16 +14651,16 @@
         <v>4</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>841</v>
+        <v>784</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="H47" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
@@ -14452,13 +14680,13 @@
         <v>45464</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
@@ -14478,13 +14706,13 @@
         <v>45391</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="H49" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>34</v>
       </c>
@@ -14504,13 +14732,13 @@
         <v>45384</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H50" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>597</v>
       </c>
@@ -14527,16 +14755,16 @@
         <v>3</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>846</v>
+        <v>785</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="H51" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>40</v>
       </c>
@@ -14556,13 +14784,13 @@
         <v>45399</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="H52" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>48</v>
       </c>
@@ -14579,16 +14807,16 @@
         <v>5</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>849</v>
+        <v>786</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>600</v>
       </c>
@@ -14605,16 +14833,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>851</v>
+        <v>787</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -14634,13 +14862,13 @@
         <v>45455</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="H55" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>54</v>
       </c>
@@ -14660,13 +14888,13 @@
         <v>45456</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>648</v>
       </c>
@@ -14686,13 +14914,13 @@
         <v>45433</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="H57" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>58</v>
       </c>
@@ -14709,16 +14937,16 @@
         <v>3</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>60</v>
       </c>
@@ -14738,13 +14966,13 @@
         <v>45406</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="H59" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>100</v>
       </c>
@@ -14764,13 +14992,13 @@
         <v>45469</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="H60" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>290</v>
       </c>
@@ -14787,16 +15015,16 @@
         <v>1</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>860</v>
+        <v>789</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="H61" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>571</v>
       </c>
@@ -14816,13 +15044,13 @@
         <v>45429</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="H62" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>116</v>
       </c>
@@ -14839,16 +15067,16 @@
         <v>3</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>863</v>
+        <v>790</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="H63" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>343</v>
       </c>
@@ -14868,13 +15096,13 @@
         <v>45470</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="H64" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>346</v>
       </c>
@@ -14894,13 +15122,13 @@
         <v>45460</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>124</v>
       </c>
@@ -14920,13 +15148,13 @@
         <v>45467</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="H66" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>126</v>
       </c>
@@ -14946,13 +15174,13 @@
         <v>45436</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="H67" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>132</v>
       </c>
@@ -14969,16 +15197,16 @@
         <v>2</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>869</v>
+        <v>791</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="H68" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>136</v>
       </c>
@@ -14998,95 +15226,845 @@
         <v>45435</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="H69" s="10">
         <v>0</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="17">
+        <v>1</v>
+      </c>
+      <c r="F70" s="19">
+        <v>45538</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>895</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="38">
+        <v>7</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="17">
+        <v>1</v>
+      </c>
+      <c r="F72" s="19">
+        <v>45558</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>897</v>
+      </c>
+      <c r="H72" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="17">
+        <v>2</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="17">
+        <v>3</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>899</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="17">
+        <v>1</v>
+      </c>
+      <c r="F75" s="19">
+        <v>45553</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="H75" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="17">
+        <v>2</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>901</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="17">
+        <v>1</v>
+      </c>
+      <c r="F77" s="19">
+        <v>45516</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="H77" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="17">
+        <v>1</v>
+      </c>
+      <c r="F78" s="19">
+        <v>45561</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="H78" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="17">
+        <v>2</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="17">
+        <v>2</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="17">
+        <v>1</v>
+      </c>
+      <c r="F81" s="19">
+        <v>45554</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="H81" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="17">
+        <v>1</v>
+      </c>
+      <c r="F82" s="19">
+        <v>45503</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="17">
+        <v>2</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="17">
+        <v>1</v>
+      </c>
+      <c r="F84" s="19">
+        <v>45498</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1</v>
+      </c>
+      <c r="F85" s="19">
+        <v>45495</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>909</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="17">
+        <v>18</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="17">
+        <v>5</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="17">
+        <v>1</v>
+      </c>
+      <c r="F88" s="19">
+        <v>45484</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="H88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="17">
+        <v>1</v>
+      </c>
+      <c r="F89" s="19">
+        <v>45491</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="H89" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="17">
+        <v>2</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="17">
+        <v>2</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>915</v>
+      </c>
+      <c r="H91" s="33" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="17">
+        <v>1</v>
+      </c>
+      <c r="F92" s="19">
+        <v>45495</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>916</v>
+      </c>
+      <c r="H92" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="17">
+        <v>4</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="H93" s="33" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="17">
+        <v>1</v>
+      </c>
+      <c r="F94" s="19">
+        <v>45554</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="17">
+        <v>1</v>
+      </c>
+      <c r="F95" s="19">
+        <v>45532</v>
+      </c>
+      <c r="G95" s="33">
+        <v>0</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="17">
+        <v>2</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>919</v>
+      </c>
+      <c r="H96" s="33" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="17">
+        <v>1</v>
+      </c>
+      <c r="F97" s="19">
+        <v>45489</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="H97" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="17">
+        <v>2</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="H98" s="33" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="17">
+        <v>2</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="17">
+        <v>3</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="H100" s="33" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="17">
+        <v>1</v>
+      </c>
+      <c r="F101" s="19">
+        <v>45485</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>924</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G35" r:id="rId1" xr:uid="{3857089E-A355-424C-9E44-87B728438930}"/>
-    <hyperlink ref="G8" r:id="rId2" xr:uid="{6F2693EE-BA6B-43CB-9815-56995C4E93FE}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{1DEBDC3A-41AD-48CA-8AEE-687C5CAB5482}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{8D846CB2-49E3-4E5F-8C07-FA0F29661DD1}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{67F1D0AF-5983-40C4-93BE-CF6E7C9D3132}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{FAC1AF2E-5B64-42BA-9C91-0F2AE408EBC3}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{D918C6D0-F8FA-440A-B634-BF85FE4462F2}"/>
-    <hyperlink ref="G14" r:id="rId8" xr:uid="{7A3C44CE-BE18-405B-A0FA-2274B38BEDB9}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{8486C89A-8DA3-45A4-8942-01C881AA363F}"/>
-    <hyperlink ref="G40" r:id="rId10" xr:uid="{605ABC03-B34F-4D98-8C8F-81B1C9B56FCC}"/>
-    <hyperlink ref="G26" r:id="rId11" xr:uid="{B1DA2CCB-DBC8-4282-8F4D-3FFC6F924FE0}"/>
-    <hyperlink ref="G25" r:id="rId12" xr:uid="{68C9211A-3C84-46CB-98F0-D4DB3530391C}"/>
-    <hyperlink ref="G27" r:id="rId13" xr:uid="{2487B5DF-9A57-4AAE-92E9-E4BF9A2A44B2}"/>
-    <hyperlink ref="H27" r:id="rId14" xr:uid="{6FD6D745-75A0-4FF0-BC58-ADAEFC667A51}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{27B6DE21-CDAD-46F4-9C52-D4279F036EBA}"/>
-    <hyperlink ref="G36" r:id="rId16" xr:uid="{C3317B2C-B06D-453B-9EE3-3C5AB58BAC32}"/>
-    <hyperlink ref="G37" r:id="rId17" xr:uid="{4786A7F5-04A1-4BB3-B2BE-BB755022FEE3}"/>
-    <hyperlink ref="H18" r:id="rId18" xr:uid="{FD1E654D-C9E0-4D26-B0A9-5B9FAC9AB746}"/>
-    <hyperlink ref="G42" r:id="rId19" xr:uid="{7F0D9053-3C8F-4551-9C22-7C8EBB1E0FC4}"/>
-    <hyperlink ref="G16" r:id="rId20" xr:uid="{7FD1E996-BDF1-48E9-B01A-957EEBF9E93D}"/>
-    <hyperlink ref="H16" r:id="rId21" xr:uid="{EF71CAED-3EC6-45C5-A53E-EA5763D66AA1}"/>
-    <hyperlink ref="G43" r:id="rId22" xr:uid="{44AE75B7-6A70-4F1F-BDD0-E9E59D971E6A}"/>
-    <hyperlink ref="G4" r:id="rId23" xr:uid="{80D6AAB9-B508-4D29-934A-CA17D2226621}"/>
-    <hyperlink ref="G5" r:id="rId24" xr:uid="{BC6F7CE4-0E8B-4032-ADD2-59C07A172F68}"/>
-    <hyperlink ref="G6" r:id="rId25" xr:uid="{BE7F1F2E-DAEB-4A5E-A319-D02ABE7A9B73}"/>
-    <hyperlink ref="H6" r:id="rId26" xr:uid="{D53165A7-2691-4ECB-B6A8-E2BEAB4456A8}"/>
-    <hyperlink ref="H11" r:id="rId27" xr:uid="{07E88041-F2CB-4043-A615-FC2A68346B3E}"/>
-    <hyperlink ref="H14" r:id="rId28" xr:uid="{3F5C46E0-2342-4B04-9B60-29E187C7E39D}"/>
-    <hyperlink ref="G17" r:id="rId29" xr:uid="{E69C0691-B0DF-4A8A-9B6E-158C82B0064B}"/>
-    <hyperlink ref="G38" r:id="rId30" xr:uid="{37C0D0E7-53CB-4720-949A-7A3800A75FD3}"/>
-    <hyperlink ref="G29" r:id="rId31" xr:uid="{4A2D6B93-8C7B-4CFE-9F39-1596183B14B5}"/>
-    <hyperlink ref="G24" r:id="rId32" xr:uid="{F2CD9EEF-05B9-4FCB-BA0D-D50E82F421EF}"/>
-    <hyperlink ref="G9" r:id="rId33" xr:uid="{341F6738-7F1F-4BCD-AAF1-0042D601EA32}"/>
-    <hyperlink ref="G41" r:id="rId34" xr:uid="{DC513876-8AB8-48C5-8FEE-24C21AC9C96D}"/>
-    <hyperlink ref="H41" r:id="rId35" xr:uid="{0BABDB5C-6683-4BA2-981C-BD74FF6A7966}"/>
-    <hyperlink ref="G2" r:id="rId36" xr:uid="{5DBD9523-A342-4942-BEF5-C388A7C25547}"/>
-    <hyperlink ref="H2" r:id="rId37" xr:uid="{67C79B22-A468-4B61-A8DF-FB90256DF1A3}"/>
-    <hyperlink ref="G3" r:id="rId38" xr:uid="{EED607AC-9998-4539-BB5C-02B5659A1D08}"/>
-    <hyperlink ref="H5" r:id="rId39" xr:uid="{F7E26F4F-59CF-4202-9A69-1B48BE7B51FB}"/>
-    <hyperlink ref="G15" r:id="rId40" xr:uid="{C457CBEF-38AF-4CD6-948A-8F488EC64FA8}"/>
-    <hyperlink ref="G7" r:id="rId41" xr:uid="{85E554CE-73D9-4E36-ACE8-6EFFDDCC6F4E}"/>
-    <hyperlink ref="G12" r:id="rId42" xr:uid="{3E260367-46A4-4A90-A27B-EF454BFFCF5B}"/>
-    <hyperlink ref="G19" r:id="rId43" xr:uid="{4055E91D-2CED-4AA9-9A3D-E3BD32192482}"/>
-    <hyperlink ref="G20" r:id="rId44" xr:uid="{C81CCC04-73EB-4108-9FF4-83FC79FCA9A5}"/>
-    <hyperlink ref="H21" r:id="rId45" xr:uid="{0F8FC196-358D-4E65-B11C-611516094C64}"/>
-    <hyperlink ref="G22" r:id="rId46" xr:uid="{86FF8F1A-5F6B-4C1E-8E10-5C29A0F13A74}"/>
-    <hyperlink ref="G23" r:id="rId47" xr:uid="{39D03474-EED1-478B-8605-D926F86A2180}"/>
-    <hyperlink ref="G28" r:id="rId48" xr:uid="{9C885B65-D23A-416A-9173-653EA4D09098}"/>
-    <hyperlink ref="G32" r:id="rId49" xr:uid="{6B6E740D-27F0-4DF4-B04B-252669C13F2E}"/>
-    <hyperlink ref="G33" r:id="rId50" xr:uid="{A22E9263-3724-4864-949B-E5C4A9D1273C}"/>
-    <hyperlink ref="G34" r:id="rId51" xr:uid="{CDEA997B-5562-4E17-AF3E-5376B3AD42D2}"/>
-    <hyperlink ref="G39" r:id="rId52" xr:uid="{58F3ED63-34AC-414E-A0EE-087733C841CD}"/>
-    <hyperlink ref="G30" r:id="rId53" xr:uid="{91E2DECB-144F-4961-830A-3468302A5C9A}"/>
-    <hyperlink ref="G31" r:id="rId54" xr:uid="{AE43EDB5-B0DA-4E91-8DB1-6BCC9034A906}"/>
-    <hyperlink ref="G63" r:id="rId55" xr:uid="{554D6F8B-AF32-4291-8CEA-4276CFD11429}"/>
-    <hyperlink ref="G49" r:id="rId56" xr:uid="{ECCE9988-188B-470D-8013-3DB3C987B52A}"/>
-    <hyperlink ref="G50" r:id="rId57" xr:uid="{79E00CB3-1860-44DC-B280-A72B15AC9D49}"/>
-    <hyperlink ref="G51" r:id="rId58" xr:uid="{A1BE8DD3-A4FE-42B4-B3CC-D483C07D4041}"/>
-    <hyperlink ref="G52" r:id="rId59" xr:uid="{DD1D3360-DF13-4BF0-8D0B-DB52131E8280}"/>
-    <hyperlink ref="G53" r:id="rId60" xr:uid="{E8AE7B09-39E2-4723-BEC2-777E0630BDE4}"/>
-    <hyperlink ref="G54" r:id="rId61" xr:uid="{4A683AE5-6507-4669-BB5E-925A3E050C50}"/>
-    <hyperlink ref="G59" r:id="rId62" xr:uid="{EBB8654B-D9C4-4C56-B72C-FFF689E747C4}"/>
-    <hyperlink ref="G61" r:id="rId63" xr:uid="{8206A155-5337-4CB9-939F-5DE5F247AC66}"/>
-    <hyperlink ref="G56" r:id="rId64" xr:uid="{AA1272AB-1346-4976-B1F4-8BCFAE5D8492}"/>
-    <hyperlink ref="G58" r:id="rId65" xr:uid="{567761CC-AFDB-4AD2-A03E-C95B6B336DF6}"/>
-    <hyperlink ref="G47" r:id="rId66" xr:uid="{3E5CBF4C-74AB-46AB-AE09-4C70E5E5A265}"/>
-    <hyperlink ref="G46" r:id="rId67" xr:uid="{07A5583D-9EB8-415B-A66D-7CF97B1635F5}"/>
-    <hyperlink ref="G62" r:id="rId68" xr:uid="{72BBDF9A-E2CC-4E06-BF62-1573900DCEE8}"/>
-    <hyperlink ref="G67" r:id="rId69" xr:uid="{4C636422-A41A-44C6-9838-974E23F06C16}"/>
-    <hyperlink ref="G68" r:id="rId70" xr:uid="{B8E4FF92-B2E0-41F9-8457-2F9618BA3EF0}"/>
-    <hyperlink ref="G69" r:id="rId71" xr:uid="{45842B3B-ACD5-4350-A9D6-600CEB950417}"/>
-    <hyperlink ref="G57" r:id="rId72" xr:uid="{E005D37E-377B-484D-86B7-01C16C01749B}"/>
-    <hyperlink ref="G44" r:id="rId73" xr:uid="{81BB26BD-ECFA-4908-940E-653972882304}"/>
-    <hyperlink ref="G48" r:id="rId74" xr:uid="{CACFA88B-A076-4EF1-8641-5868F64E5410}"/>
-    <hyperlink ref="G55" r:id="rId75" xr:uid="{C577F000-FF65-4B46-A0FE-E5417D59CA37}"/>
-    <hyperlink ref="G45" r:id="rId76" xr:uid="{0005BADE-4E22-45AE-9F1C-8966300111D8}"/>
-    <hyperlink ref="G65" r:id="rId77" xr:uid="{49F893F5-8317-4792-BDC9-652677B78019}"/>
-    <hyperlink ref="G66" r:id="rId78" xr:uid="{DA4C3E94-0D0B-478E-AFD4-0D7B74150136}"/>
-    <hyperlink ref="G60" r:id="rId79" xr:uid="{C6C70AA9-FAA9-4309-8E6E-F08B548D75A5}"/>
-    <hyperlink ref="G64" r:id="rId80" xr:uid="{9350F709-A89E-47B8-A7A0-806906107675}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>